--- a/Notebooks/data/CLASIFICADO_FINAL.xlsx
+++ b/Notebooks/data/CLASIFICADO_FINAL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEEP_LEARNING\Project_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEEP_LEARNING\Project_1\Notebooks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EEE887-2905-4BFD-ADF0-B351705FEE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDDD5B7-0640-47B2-842A-3185C8D299F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8784,7 +8784,7 @@
   <dimension ref="A1:C2775"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -9711,7 +9711,7 @@
         <v>108</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -28741,7 +28741,7 @@
         <v>1843</v>
       </c>
       <c r="C1814" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1815" spans="1:3">
@@ -29555,7 +29555,7 @@
         <v>1917</v>
       </c>
       <c r="C1888" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1889" spans="1:3">
